--- a/biology/Zoologie/Agatasa_calydonia/Agatasa_calydonia.xlsx
+++ b/biology/Zoologie/Agatasa_calydonia/Agatasa_calydonia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Agatasa calydonia  est une espèce de lépidoptères (papillons) de la famille des Nymphalidae et de la sous-famille des Charaxinae. Originaire d'Asie du Sud-Est, elle est l'unique représentante du genre monotypique Agatasa.
 </t>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">L'imago d’Agatasa calydonia est un papillon de grande taille à l'aspect spectaculaire. 
 Le dessus des ailes antérieures est jaune très largement bordé de noir, et celui des ailes postérieures est blanc bordé de noir. 
@@ -544,9 +558,11 @@
           <t>Biologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le cycle biologique de cette espèce est encore inconnu[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le cycle biologique de cette espèce est encore inconnu.
 </t>
         </is>
       </c>
@@ -575,10 +591,12 @@
           <t>Distribution et biotopes</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Agatasa calydonia est originaire d'Asie du Sud-Est, où elle est présente dans le Sud de la Birmanie, en Thaïlande, au Laos, en Malaisie, à Bornéo, à Sumatra, à Bangka et aux Philippines[2],[1].
-Elle réside en zone ouverte de la forêt primaire à basse altitude[1].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Agatasa calydonia est originaire d'Asie du Sud-Est, où elle est présente dans le Sud de la Birmanie, en Thaïlande, au Laos, en Malaisie, à Bornéo, à Sumatra, à Bangka et aux Philippines,.
+Elle réside en zone ouverte de la forêt primaire à basse altitude.
 </t>
         </is>
       </c>
@@ -607,12 +625,49 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>L'espèce actuellement appelée Agatasa calydonia a été décrite par le naturaliste britannique William Chapman Hewitson en 1854, sous le nom initial de Nymphalis calydonia[2].
-Elle est l'espèce type et l'unique espèce du genre Agatasa, décrit en 1899 par l'entomologiste britannique Frederic Moore[2].
-Sous-espèces
-Plusieurs sous-espèces ont été décrites[2] :
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce actuellement appelée Agatasa calydonia a été décrite par le naturaliste britannique William Chapman Hewitson en 1854, sous le nom initial de Nymphalis calydonia.
+Elle est l'espèce type et l'unique espèce du genre Agatasa, décrit en 1899 par l'entomologiste britannique Frederic Moore.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Agatasa_calydonia</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Agatasa_calydonia</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Systématique</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Sous-espèces</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Plusieurs sous-espèces ont été décrites :
 Agatasa calydonia calydonia (Hewitson, 1855) — en Malaisie péninsulaire.
 Agatasa calydonia belisama Crowley, 1891 — dans le Sud de la Birmanie.
 Agatasa calydonia mahasthama Fruhstorfer — à Bornéo.
@@ -622,33 +677,35 @@
         </is>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
         <is>
           <t>Agatasa_calydonia</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="C8" t="inlineStr">
         <is>
           <t>Portail:Zoologie/Articles liés</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Agatasa_calydonia</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>Noms vernaculaires</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Agatasa calydonia se nomme Glorious Begum en anglais[1].
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Agatasa calydonia se nomme Glorious Begum en anglais.
 </t>
         </is>
       </c>
